--- a/default_model.xlsx
+++ b/default_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardpuig/iwall_audience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10EF2B16-B1C2-0A41-8E7F-562F0086EF9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{718668CC-9E7A-9747-AB6B-5A41B5BDAF9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="1120" windowWidth="35220" windowHeight="18820" xr2:uid="{4FEA14AC-FC8B-B443-BBB8-D347C4180518}"/>
+    <workbookView xWindow="13320" yWindow="800" windowWidth="35220" windowHeight="18820" xr2:uid="{4FEA14AC-FC8B-B443-BBB8-D347C4180518}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -88,12 +88,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -222,160 +225,160 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1.1780524153694101</c:v>
+                  <c:v>0.92594630167918501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2933963429701001</c:v>
+                  <c:v>1.0629543784895199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0931901717321499</c:v>
+                  <c:v>0.892859698973684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0728047010131001</c:v>
+                  <c:v>1.0059390720416499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.02936974919694</c:v>
+                  <c:v>0.98115366162207895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99512370274277195</c:v>
+                  <c:v>1.03683368731791</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.06241892142328</c:v>
+                  <c:v>1.0244793862005499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91219190140845097</c:v>
+                  <c:v>0.85078653864049203</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.05550793797875</c:v>
+                  <c:v>0.81478713323252505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0915686001976801</c:v>
+                  <c:v>0.97141083878969103</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61963337039782596</c:v>
+                  <c:v>0.95510387031340804</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.67565480602915695</c:v>
+                  <c:v>0.94533150587146197</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.65635038299975301</c:v>
+                  <c:v>0.94533150587146197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.61774153694094402</c:v>
+                  <c:v>0.94533150587146197</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.59843711391153898</c:v>
+                  <c:v>0.94533150587146197</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.52718448851000699</c:v>
+                  <c:v>1.0044147249884301</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.98672627872498198</c:v>
+                  <c:v>1.0907884830155199</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1880328020756099</c:v>
+                  <c:v>1.0510963764127399</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.63150559056090905</c:v>
+                  <c:v>0.757234169490688</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92661230541141604</c:v>
+                  <c:v>0.73959782858427303</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94591672844081998</c:v>
+                  <c:v>0.79400756506908798</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.96522115147022503</c:v>
+                  <c:v>0.77459872758916404</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.96522115147022503</c:v>
+                  <c:v>0.95573606075796003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.69569279713367904</c:v>
+                  <c:v>1.17887565439701</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99213151717321502</c:v>
+                  <c:v>0.77069332680553304</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0690017296762999</c:v>
+                  <c:v>1.31934600784759</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.04243884358784</c:v>
+                  <c:v>1.06161318941556</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.02857826785273</c:v>
+                  <c:v>1.00615177163047</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.98745984680009902</c:v>
+                  <c:v>0.95012315494184796</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.96522115147022503</c:v>
+                  <c:v>0.98577987767893704</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0317055843834899</c:v>
+                  <c:v>0.95244512545314497</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.88796485050654805</c:v>
+                  <c:v>0.94918373175788795</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.81810214356313304</c:v>
+                  <c:v>0.81001911744978605</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.74237089201877904</c:v>
+                  <c:v>1.0030026360515301</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.87871803187546305</c:v>
+                  <c:v>1.0572528478447301</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.92489421176179898</c:v>
+                  <c:v>1.0080424346422101</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.83829457005189001</c:v>
+                  <c:v>0.92573951041227598</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.77001482579688696</c:v>
+                  <c:v>1.28049879127819</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.81377795280454701</c:v>
+                  <c:v>1.08319038103708</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.85873795404002995</c:v>
+                  <c:v>1.0474923000466101</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.97060708549542896</c:v>
+                  <c:v>1.05783186339208</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.91661261428218399</c:v>
+                  <c:v>0.93473788468379004</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.88782971954534196</c:v>
+                  <c:v>1.1732095736836901</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.23656412157153</c:v>
+                  <c:v>1.1941959331140399</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.1813920805535001</c:v>
+                  <c:v>1.1782257389867199</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0722448727452401</c:v>
+                  <c:v>1.04268292601049</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2836283049172199</c:v>
+                  <c:v>1.0044147249884301</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1934187361008199</c:v>
+                  <c:v>0.95757945719440896</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.25478749691129</c:v>
+                  <c:v>1.06349794410539</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.29272068816407</c:v>
+                  <c:v>1.1427639908727201</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.5764184890041999</c:v>
+                  <c:v>1.2440089951515501</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.60780748085001</c:v>
+                  <c:v>1.2407476014562899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,76 +666,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>2.5847863274690401E-3</c:v>
+                  <c:v>4.4763644329961598E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7715438095387598E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0333338564635401E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.2863823977149696E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.38106373295249E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0961094806886498E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.88924810496084E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.4501953891304004E-3</c:v>
+                  <c:v>5.6373168046460398E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>1.11630035735565E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>8.3722526801673904E-6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>9.7676281268619501E-6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>3.3489010720669602E-5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>3.7675137060753298E-5</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>5.5815017867782598E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5747736154051399E-3</c:v>
+                  <c:v>1.4190968292883701E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.08868626312403E-2</c:v>
+                  <c:v>1.49360987814186E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.03928184685886E-2</c:v>
+                  <c:v>3.2537364666023902E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9454636764544299E-2</c:v>
+                  <c:v>5.8115991979381901E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.0806039015050502E-2</c:v>
+                  <c:v>6.7109186733328399E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.1618983348765699E-2</c:v>
+                  <c:v>6.6213355696550499E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.1877932798694302E-2</c:v>
+                  <c:v>6.8874336673396999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.3196220907421594E-2</c:v>
+                  <c:v>6.4036569999706999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.0985106483152594E-2</c:v>
+                  <c:v>7.6583786016384506E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.7950218929989499E-2</c:v>
+                  <c:v>0.10717739268516301</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.111657433418604</c:v>
+                  <c:v>0.134362097137666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.130375555171927</c:v>
+                  <c:v>0.129799219426975</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.118978640593857</c:v>
+                  <c:v>9.8175825678536194E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.8172915456928102E-2</c:v>
+                  <c:v>4.6542748024497198E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1850782341216903E-2</c:v>
+                  <c:v>1.7153350366216302E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0745617476733801E-2</c:v>
+                  <c:v>1.176720114197E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,25 +1007,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.72511210762331801</c:v>
+                  <c:v>0.92393669103210696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74975336322870001</c:v>
+                  <c:v>0.87279620008485204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91313901345291504</c:v>
+                  <c:v>0.82208098209702096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86589686098654695</c:v>
+                  <c:v>0.95517866020791797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1305156950672599</c:v>
+                  <c:v>1.26335271025444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.44363228699552</c:v>
+                  <c:v>1.95001827661171</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.17195067264574</c:v>
+                  <c:v>0.2126364797119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2865,8 +2868,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3543300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3265,8 +3268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF5BB78-9F28-F64A-9260-941007FD8906}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3280,7 +3283,7 @@
     <col min="7" max="7" width="20.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="371" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="1:7" ht="283" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
@@ -3298,355 +3301,355 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1.1780524153694101</v>
+        <v>0.92594630167918501</v>
       </c>
       <c r="D3" s="1">
-        <v>2.5847863274690401E-3</v>
+        <v>4.4763644329961598E-3</v>
       </c>
       <c r="G3" s="1">
-        <v>0.72511210762331801</v>
+        <v>0.92393669103210696</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1.2933963429701001</v>
+        <v>1.0629543784895199</v>
       </c>
       <c r="D4" s="1">
-        <v>2.7715438095387598E-3</v>
+        <v>5.6373168046460398E-4</v>
       </c>
       <c r="G4" s="1">
-        <v>0.74975336322870001</v>
+        <v>0.87279620008485204</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>1.0931901717321499</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4.0333338564635401E-4</v>
+        <v>0.892859698973684</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.11630035735565E-5</v>
       </c>
       <c r="G5" s="1">
-        <v>0.91313901345291504</v>
+        <v>0.82208098209702096</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>1.0728047010131001</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8.2863823977149696E-4</v>
+        <v>1.0059390720416499</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8.3722526801673904E-6</v>
       </c>
       <c r="G6" s="1">
-        <v>0.86589686098654695</v>
+        <v>0.95517866020791797</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>1.02936974919694</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.38106373295249E-4</v>
+        <v>0.98115366162207895</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9.7676281268619501E-6</v>
       </c>
       <c r="G7" s="1">
-        <v>1.1305156950672599</v>
+        <v>1.26335271025444</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>0.99512370274277195</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4.0961094806886498E-4</v>
+        <v>1.03683368731791</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3.3489010720669602E-5</v>
       </c>
       <c r="G8" s="1">
-        <v>1.44363228699552</v>
+        <v>1.95001827661171</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>1.06241892142328</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.88924810496084E-3</v>
+        <v>1.0244793862005499</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.7675137060753298E-5</v>
       </c>
       <c r="G9" s="1">
-        <v>1.17195067264574</v>
+        <v>0.2126364797119</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>0.91219190140845097</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6.4501953891304004E-3</v>
+        <v>0.85078653864049203</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.5815017867782598E-5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>1.05550793797875</v>
+        <v>0.81478713323252505</v>
       </c>
       <c r="D11" s="1">
-        <v>4.5747736154051399E-3</v>
+        <v>1.4190968292883701E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>1.0915686001976801</v>
+        <v>0.97141083878969103</v>
       </c>
       <c r="D12" s="1">
-        <v>1.08868626312403E-2</v>
+        <v>1.49360987814186E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>0.61963337039782596</v>
+        <v>0.95510387031340804</v>
       </c>
       <c r="D13" s="1">
-        <v>3.03928184685886E-2</v>
+        <v>3.2537364666023902E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>0.67565480602915695</v>
+        <v>0.94533150587146197</v>
       </c>
       <c r="D14" s="1">
-        <v>4.9454636764544299E-2</v>
+        <v>5.8115991979381901E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>0.65635038299975301</v>
+        <v>0.94533150587146197</v>
       </c>
       <c r="D15" s="1">
-        <v>6.0806039015050502E-2</v>
+        <v>6.7109186733328399E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>0.61774153694094402</v>
+        <v>0.94533150587146197</v>
       </c>
       <c r="D16" s="1">
-        <v>6.1618983348765699E-2</v>
+        <v>6.6213355696550499E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>0.59843711391153898</v>
+        <v>0.94533150587146197</v>
       </c>
       <c r="D17" s="1">
-        <v>6.1877932798694302E-2</v>
+        <v>6.8874336673396999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>0.52718448851000699</v>
+        <v>1.0044147249884301</v>
       </c>
       <c r="D18" s="1">
-        <v>6.3196220907421594E-2</v>
+        <v>6.4036569999706999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>0.98672627872498198</v>
+        <v>1.0907884830155199</v>
       </c>
       <c r="D19" s="1">
-        <v>7.0985106483152594E-2</v>
+        <v>7.6583786016384506E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>1.1880328020756099</v>
+        <v>1.0510963764127399</v>
       </c>
       <c r="D20" s="1">
-        <v>8.7950218929989499E-2</v>
+        <v>0.10717739268516301</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>0.63150559056090905</v>
+        <v>0.757234169490688</v>
       </c>
       <c r="D21" s="1">
-        <v>0.111657433418604</v>
+        <v>0.134362097137666</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>0.92661230541141604</v>
+        <v>0.73959782858427303</v>
       </c>
       <c r="D22" s="1">
-        <v>0.130375555171927</v>
+        <v>0.129799219426975</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>0.94591672844081998</v>
+        <v>0.79400756506908798</v>
       </c>
       <c r="D23" s="1">
-        <v>0.118978640593857</v>
+        <v>9.8175825678536194E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>0.96522115147022503</v>
+        <v>0.77459872758916404</v>
       </c>
       <c r="D24" s="1">
-        <v>7.8172915456928102E-2</v>
+        <v>4.6542748024497198E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>0.96522115147022503</v>
+        <v>0.95573606075796003</v>
       </c>
       <c r="D25" s="1">
-        <v>3.1850782341216903E-2</v>
+        <v>1.7153350366216302E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>0.69569279713367904</v>
+        <v>1.17887565439701</v>
       </c>
       <c r="D26" s="1">
-        <v>1.0745617476733801E-2</v>
+        <v>1.176720114197E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>0.99213151717321502</v>
+        <v>0.77069332680553304</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>1.0690017296762999</v>
+        <v>1.31934600784759</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>1.04243884358784</v>
+        <v>1.06161318941556</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>1.02857826785273</v>
+        <v>1.00615177163047</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>0.98745984680009902</v>
+        <v>0.95012315494184796</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>0.96522115147022503</v>
+        <v>0.98577987767893704</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>1.0317055843834899</v>
+        <v>0.95244512545314497</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>0.88796485050654805</v>
+        <v>0.94918373175788795</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>0.81810214356313304</v>
+        <v>0.81001911744978605</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>0.74237089201877904</v>
+        <v>1.0030026360515301</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>0.87871803187546305</v>
+        <v>1.0572528478447301</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>0.92489421176179898</v>
+        <v>1.0080424346422101</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>0.83829457005189001</v>
+        <v>0.92573951041227598</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>0.77001482579688696</v>
+        <v>1.28049879127819</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>0.81377795280454701</v>
+        <v>1.08319038103708</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>0.85873795404002995</v>
+        <v>1.0474923000466101</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>0.97060708549542896</v>
+        <v>1.05783186339208</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>0.91661261428218399</v>
+        <v>0.93473788468379004</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>0.88782971954534196</v>
+        <v>1.1732095736836901</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>1.23656412157153</v>
+        <v>1.1941959331140399</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>1.1813920805535001</v>
+        <v>1.1782257389867199</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>1.0722448727452401</v>
+        <v>1.04268292601049</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>1.2836283049172199</v>
+        <v>1.0044147249884301</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>1.1934187361008199</v>
+        <v>0.95757945719440896</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>1.25478749691129</v>
+        <v>1.06349794410539</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>1.29272068816407</v>
+        <v>1.1427639908727201</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>1.5764184890041999</v>
+        <v>1.2440089951515501</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>1.60780748085001</v>
+        <v>1.2407476014562899</v>
       </c>
     </row>
   </sheetData>
